--- a/积累库/游戏设计理念.xlsx
+++ b/积累库/游戏设计理念.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19995" windowHeight="11475"/>
+    <workbookView windowWidth="25200" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>名称</t>
   </si>
@@ -43,6 +43,25 @@
   <si>
     <t>BV18t4y1a7qQ</t>
   </si>
+  <si>
+    <t>对马岛的战斗设计思维</t>
+  </si>
+  <si>
+    <t>每种敌人=一种动作挑战指令，有节奏和强度上的变化
+连续切换不同的敌人进行进攻，最终形成了连贯的动作挑战</t>
+  </si>
+  <si>
+    <t>群友</t>
+  </si>
+  <si>
+    <t>MMO副本制作思路</t>
+  </si>
+  <si>
+    <t>1、分析用途，是作用于何种情况下的，是个人是小队是RAID本
+2、根据以上分析去大致规划副本预期时长，并根据玩法拆分游戏节奏，比如魔兽传统的5人本就是3个boss，团本是8个boss
+3、规划流线，玩家在游戏中的行进路线以及行进路线上会遭遇的玩法
+4、根据副本的内容包装去设计小怪BOSS机制，想让玩家体验什么样的战斗</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +73,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,10 +83,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -543,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,34 +580,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,114 +616,123 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1052,90 +1083,242 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="40" customHeight="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="13.5" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+    <row r="3" ht="38" customHeight="1" spans="1:14">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:14">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" ht="13.5" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" ht="13.5" spans="1:14">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" ht="13.5" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" ht="13.5" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J11"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:I3"/>
     <mergeCell ref="K2:N3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:I5"/>
+    <mergeCell ref="K4:N5"/>
+    <mergeCell ref="A6:B11"/>
+    <mergeCell ref="C6:I11"/>
+    <mergeCell ref="K6:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/积累库/游戏设计理念.xlsx
+++ b/积累库/游戏设计理念.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="13395"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>名称</t>
   </si>
@@ -61,6 +61,25 @@
 2、根据以上分析去大致规划副本预期时长，并根据玩法拆分游戏节奏，比如魔兽传统的5人本就是3个boss，团本是8个boss
 3、规划流线，玩家在游戏中的行进路线以及行进路线上会遭遇的玩法
 4、根据副本的内容包装去设计小怪BOSS机制，想让玩家体验什么样的战斗</t>
+  </si>
+  <si>
+    <t>探索游戏的重要元素 - 好奇感的调度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.在玩家最初产生“那里会有什么时”，一定要满足玩家的想法，从而培养好奇心。
+2.玩家因为游戏经历，逐渐对习惯的设计失去好奇心，所以需要通过新奇的剧情、场景以及交互物，重拾取玩家的好奇心。
+</t>
+  </si>
+  <si>
+    <t>BV1u34y1p7jF</t>
+  </si>
+  <si>
+    <t>方法论思维</t>
+  </si>
+  <si>
+    <t>1.MDA方案思考-见游戏设计方案文档
+2.一切围绕游戏设计出发
+3.但不代表不需要做积累，积累是灵感的来源，大量的灵感会产生十分符合游戏设计的点子</t>
   </si>
 </sst>
 </file>
@@ -710,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +750,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1083,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1136,7 +1167,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -1302,14 +1333,125 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
+    <row r="12" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" customFormat="1" ht="29" customHeight="1" spans="1:14">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="41" customHeight="1" spans="1:10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J11"/>
+    <mergeCell ref="J12:J15"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:I3"/>
     <mergeCell ref="K2:N3"/>
@@ -1319,6 +1461,11 @@
     <mergeCell ref="A6:B11"/>
     <mergeCell ref="C6:I11"/>
     <mergeCell ref="K6:N11"/>
+    <mergeCell ref="A12:B15"/>
+    <mergeCell ref="C12:I15"/>
+    <mergeCell ref="K12:N15"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
